--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_001.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_001.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295001AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Core flow response</t>
+    <t>(295030EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Pump NPSH</t>
   </si>
   <si>
     <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
   </si>
   <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295021AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
-  </si>
-  <si>
-    <t>(295026EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295030EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Suppression pool makeup system(s) operation</t>
-  </si>
-  <si>
-    <t>(295003AK2.04) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical loads</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Fuel positioning</t>
-  </si>
-  <si>
-    <t>(295005AA2.03) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine valve position</t>
-  </si>
-  <si>
-    <t>(295019AA1.02) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) System valves</t>
-  </si>
-  <si>
-    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
-  </si>
-  <si>
-    <t>(295004AK2.04) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
-  </si>
-  <si>
-    <t>(295016AA1.12) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) RHR/LPCI: torus/suppression pool cooling mode</t>
-  </si>
-  <si>
-    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
-  </si>
-  <si>
-    <t>(295025EK2.01) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(295014AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Reactivity anomaly</t>
-  </si>
-  <si>
-    <t>(295035EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment pressure</t>
-  </si>
-  <si>
-    <t>(500000EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.7 / 45.6) Nitrogen purge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295017AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.5 / 45.6) Plant ventilation </t>
-  </si>
-  <si>
-    <t>(295013AK2.02) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valve operation</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(259002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor water level</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(261000A4.01) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Offsite radioactive release limits </t>
-  </si>
-  <si>
-    <t>(212000K4.03) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Transferring RPS power supplies</t>
-  </si>
-  <si>
-    <t>(215003A2.07) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failed recorder</t>
-  </si>
-  <si>
-    <t>(223002K3.04) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor building radiation level</t>
-  </si>
-  <si>
-    <t>(262001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Emergency generators</t>
-  </si>
-  <si>
-    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
-  </si>
-  <si>
-    <t>(215005A3.03) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Meters and recorders</t>
-  </si>
-  <si>
-    <t>(215004A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
-  </si>
-  <si>
-    <t>(203000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Core cooling methods</t>
-  </si>
-  <si>
-    <t>(211000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel internals</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (291001K1.10) VALVES (CFR: 41.3) Principles of operation and purpose of check valves</t>
-  </si>
-  <si>
-    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
-  </si>
-  <si>
-    <t>(400000K4.05) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Surge tank level control</t>
-  </si>
-  <si>
-    <t>(209002A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
-  </si>
-  <si>
-    <t>(217000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate storage tank level</t>
+    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295023AA1.10) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Alternate fuel pool makeup systems</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(295027EK2.01) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI: containment spray system mode</t>
+  </si>
+  <si>
+    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(700000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
+  </si>
+  <si>
+    <t>(295031EK2.15) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295025EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Isolation condenser initiation (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295005AA1.05) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295016AA1.10) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295038EK2.07) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Control room heating, ventilation and air conditioning</t>
+  </si>
+  <si>
+    <t>(295012AA2.01) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(295020AA1.05) Ability to operate and/or monitor the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295009AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Recirculation pump net positive suction head</t>
+  </si>
+  <si>
+    <t>(295032EK2.06) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Area temperature monitoring system</t>
+  </si>
+  <si>
+    <t>(295013AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Suppression pool cooling operation</t>
+  </si>
+  <si>
+    <t>(203000K4.08) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Pump operability testing</t>
+  </si>
+  <si>
+    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
+  </si>
+  <si>
+    <t>(259002A3.12) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Transfer from three-element to one-element control</t>
+  </si>
+  <si>
+    <t>(400000A2.15) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to turbine lube oil system</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209001K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Residual heat removal system</t>
   </si>
   <si>
     <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
   </si>
   <si>
-    <t>(205000K2.02) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
-  </si>
-  <si>
-    <t>(510000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW heat exchanger outlet temperature</t>
-  </si>
-  <si>
-    <t>(218000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(259002K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Rod worth minimizer</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(261000A4.08) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System temperature</t>
-  </si>
-  <si>
-    <t>(212000K4.13) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Underfrequency, overvoltage, and undervoltage protection</t>
-  </si>
-  <si>
-    <t>(256000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(201001K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.5-7 / 41.10 / 45.1-6 / 45.12-13) Solenoid-operated valves</t>
-  </si>
-  <si>
-    <t>(290002K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Control rod drive mechanism system</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (291007K1.07) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Principles of demineralizer operation</t>
-  </si>
-  <si>
-    <t>(272000A4.04) Ability to manually operate and/or monitor the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(510001K4.02) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Cooling tower cold weather operations</t>
-  </si>
-  <si>
-    <t>(202001A2.30) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) VFD cooling system failure</t>
-  </si>
-  <si>
-    <t>(215001K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 TIP) TRAVERSING IN CORE PROBE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Local power range monitoring system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(268000A3.02) Ability to monitor automatic operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.7 / 45.7) Primary/secondary containment sump pump operation </t>
-  </si>
-  <si>
-    <t>(234000K3.02) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS</t>
-  </si>
-  <si>
-    <t>(201005A3.01) Ability to monitor automatic operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.7 / 45.7) Operator control module lights</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(292004K1.04) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain Doppler broadening and self-shielding</t>
-  </si>
-  <si>
-    <t>(292008K1.27) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain reactor power response to a control rod insertion</t>
-  </si>
-  <si>
-    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
-  </si>
-  <si>
-    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
-  </si>
-  <si>
-    <t>(293007K1.11) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Explain methods of calculating core thermal power</t>
-  </si>
-  <si>
-    <t>(295001AA2.03) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Core flow</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
-  </si>
-  <si>
-    <t>(295008AA2.01) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295032EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Cause of high area temperature</t>
-  </si>
-  <si>
-    <t>(215003A2.04) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(262001A2.11) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded bus voltages</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215005A2.07) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels flow mismatch</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(290003A2.03) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+    <t>(212000K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(215004A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) RPS status</t>
+  </si>
+  <si>
+    <t>(209002A4.16) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Emergency diesel generator operation</t>
+  </si>
+  <si>
+    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
+  </si>
+  <si>
+    <t>(218000K4.03) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) ADS logic control</t>
+  </si>
+  <si>
+    <t>(211000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) SLCS pressure/relief valve operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(217000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Turbine startup </t>
+  </si>
+  <si>
+    <t>(510000A2.07) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water temperature</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291003K1.06) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and characteristics of governors and other mechanical controllers</t>
+  </si>
+  <si>
+    <t>(205000K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Service water</t>
+  </si>
+  <si>
+    <t>(264000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Fuel oil components</t>
+  </si>
+  <si>
+    <t>(239002K3.05) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool</t>
+  </si>
+  <si>
+    <t>(215003A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Reactor SCRAM signals</t>
+  </si>
+  <si>
+    <t>(261000A4.05) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Drywell to suppression chamber/torus differential pressure (Mark I and II)</t>
+  </si>
+  <si>
+    <t>(215005K2.01) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) LPRM channels</t>
+  </si>
+  <si>
+    <t>(203000K4.15) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Pump runout protection</t>
+  </si>
+  <si>
+    <t>(300000K5.14) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Air leaks</t>
+  </si>
+  <si>
+    <t>(259002A3.11) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Automatic selection of feedflow/steam flow/level channel input</t>
+  </si>
+  <si>
+    <t>(400000A2.12) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to reactor recirculation pump variable frequency drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(226001A4.02) Ability to manually operate and/or monitor the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valves </t>
+  </si>
+  <si>
+    <t>(245000K2.04) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Hydrogen seal oil pumps</t>
+  </si>
+  <si>
+    <t>(290001K4.02) Knowledge of (SF5 SC) SECONDARY CONTAINMENT design features and/or interlocks that provide for the following: (CFR: 41.7) Protection against overpressurization</t>
+  </si>
+  <si>
+    <t>(239003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.4) Radiation release</t>
+  </si>
+  <si>
+    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(201001A2.10) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Low HCU accumulator pressure or high-level</t>
+  </si>
+  <si>
+    <t>(234000) (SF8 FH) FUEL HANDLING (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(215001K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 TIP) TRAVERSING IN CORE PROBE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment isolation system (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(259001K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(202002K3.05) Knowledge of the effect that a loss or malfunction of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Recirculation pump speed</t>
+  </si>
+  <si>
+    <t>(223001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.5 / 45.5) Containment temperature</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292008K1.28) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain the necessity for inserting control rods in a predetermined sequence during normal shutdown</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(293006K1.03) FLUID STATICS AND DYNAMICS (CFR: 41.14) Define head loss</t>
+  </si>
+  <si>
+    <t>(293004K1.13) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain vacuum formation in condenser processes</t>
+  </si>
+  <si>
+    <t>(293008K1.30) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Compare the flow resistance through high\u2011powered bundles to that of low-powered bundles</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
+  </si>
+  <si>
+    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209001A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(212000A2.11) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(286000A2.10) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(288000A2.05) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Extreme outside weather conditions</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K2</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,214 +385,214 @@
     <t>T</t>
   </si>
   <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295006</t>
+    <t>295016</t>
   </si>
   <si>
     <t>295038</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295017</t>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295032</t>
   </si>
   <si>
     <t>295013</t>
   </si>
   <si>
-    <t>295033</t>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>300000</t>
   </si>
   <si>
     <t>259002</t>
   </si>
   <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
     <t>264000</t>
   </si>
   <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
     <t>261000</t>
   </si>
   <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
     <t>215005</t>
   </si>
   <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>256000</t>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>230000</t>
   </si>
   <si>
     <t>201001</t>
   </si>
   <si>
-    <t>290002</t>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>259001</t>
   </si>
   <si>
     <t>202002</t>
   </si>
   <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>201005</t>
+    <t>223001</t>
   </si>
   <si>
     <t>292007</t>
   </si>
   <si>
-    <t>292004</t>
-  </si>
-  <si>
     <t>292008</t>
   </si>
   <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>290003</t>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>201003</t>
   </si>
   <si>
     <t>288000</t>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D33" t="s">
         <v>105</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D61" t="s">
         <v>105</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2398,7 +2398,7 @@
         <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
